--- a/Test_Suite/citrix_edit.xlsx
+++ b/Test_Suite/citrix_edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD99EA7E-B76A-4E0B-867F-C280259015BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D9A55E-6EDC-4F60-A870-3F82C224EBA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,25 +37,25 @@
     <t>Y</t>
   </si>
   <si>
-    <t>CommonUtils.Reboot()</t>
-  </si>
-  <si>
-    <t>CommonUtils.SwitchToAdmin()</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>CommonUtils.SwitchToUser()</t>
-  </si>
-  <si>
-    <t>Shell_Application().create('standardCitrix')</t>
-  </si>
-  <si>
-    <t>Shell_Application().edit('editCitrix', 'standardCitrix')</t>
-  </si>
-  <si>
-    <t>Shell_Application().check('editCitrix')</t>
+    <t>Shell_Citrix().create('standardCitrix')</t>
+  </si>
+  <si>
+    <t>Shell_Citrix().edit('editCitrix', 'standardCitrix')</t>
+  </si>
+  <si>
+    <t>EasyshellLib.CommonUtils.SwitchToUser()</t>
+  </si>
+  <si>
+    <t>EasyshellLib.CommonUtils.Reboot()</t>
+  </si>
+  <si>
+    <t>EasyshellLib.CommonUtils.SwitchToAdmin()</t>
+  </si>
+  <si>
+    <t>Shell_Citrix().check('editCitrix')</t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,7 +413,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2"/>
     </row>
@@ -422,12 +422,12 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -435,10 +435,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -451,18 +451,18 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">

--- a/Test_Suite/citrix_edit.xlsx
+++ b/Test_Suite/citrix_edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D9A55E-6EDC-4F60-A870-3F82C224EBA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4714AD8F-EDDB-4155-908B-A870F0186FA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,7 +382,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test_Suite/citrix_edit.xlsx
+++ b/Test_Suite/citrix_edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4714AD8F-EDDB-4155-908B-A870F0186FA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAE38CC-BE1C-485F-A4EA-3481A9596E64}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
     <t>EasyshellLib.CommonUtils.SwitchToAdmin()</t>
   </si>
   <si>
-    <t>Shell_Citrix().check('editCitrix')</t>
+    <t>Shell_Citrix().check_connection('editCitrix')</t>
   </si>
 </sst>
 </file>
@@ -382,19 +382,19 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" style="1" customWidth="1"/>
-    <col min="4" max="21" width="9.109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" style="1" customWidth="1"/>
+    <col min="4" max="21" width="9.140625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,7 +408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -417,7 +417,7 @@
       </c>
       <c r="D2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -425,7 +425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -433,7 +433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -441,7 +441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -449,7 +449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -457,7 +457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -465,53 +465,53 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C50" s="4"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C52" s="4"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C54" s="4"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C55" s="4"/>
     </row>
   </sheetData>
